--- a/data/new_data_raw_5_.xlsx
+++ b/data/new_data_raw_5_.xlsx
@@ -444,7 +444,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Nantes</t>
+          <t>Birmingham</t>
         </is>
       </c>
     </row>
@@ -454,7 +454,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Brest</t>
+          <t>Leicester City</t>
         </is>
       </c>
     </row>
@@ -464,7 +464,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -484,7 +484,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -494,7 +494,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>(İY 0 - 0)</t>
+          <t>(İY 1 - 2)</t>
         </is>
       </c>
     </row>
@@ -504,7 +504,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>17-12-23 | Ligue 1 | 16. Hafta | Stat: Stade de la Beaujoire - Louis Fonteneau (30075)</t>
+          <t>18-12-23 | Championship | 22. Hafta | Stat: St Andrew's Stadium (20334)</t>
         </is>
       </c>
     </row>
@@ -514,7 +514,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>MAÇ SONUCU 21915 MBS 1</t>
+          <t>MAÇ SONUCU 26357 MBS 1</t>
         </is>
       </c>
     </row>
@@ -534,7 +534,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2.38</t>
+          <t>5.35</t>
         </is>
       </c>
     </row>
@@ -554,7 +554,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2.77</t>
+          <t>3.94</t>
         </is>
       </c>
     </row>
@@ -574,7 +574,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2.38</t>
+          <t>1.32</t>
         </is>
       </c>
     </row>
@@ -584,7 +584,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ÇIFTE ŞANS 21917 MBS 1</t>
+          <t>ÇIFTE ŞANS 26358 MBS 1</t>
         </is>
       </c>
     </row>
@@ -604,7 +604,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1.27</t>
+          <t>2.10</t>
         </is>
       </c>
     </row>
@@ -624,7 +624,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>1.06</t>
         </is>
       </c>
     </row>
@@ -644,7 +644,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1.27</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -654,7 +654,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1,5 ALT/ÜST 21943 MBS 1</t>
+          <t>2,5 ALT/ÜST 26370 MBS 1</t>
         </is>
       </c>
     </row>
@@ -674,7 +674,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2.68</t>
+          <t>1.96</t>
         </is>
       </c>
     </row>
@@ -694,7 +694,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>1.47</t>
         </is>
       </c>
     </row>
@@ -704,7 +704,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>3,5 ALT/ÜST 21960 MBS 1</t>
+          <t>1,5 ALT/ÜST 26368 MBS 1</t>
         </is>
       </c>
     </row>
@@ -724,7 +724,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>3.86</t>
         </is>
       </c>
     </row>
@@ -744,7 +744,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>3.44</t>
+          <t>1.08</t>
         </is>
       </c>
     </row>
@@ -754,7 +754,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>4,5 ALT/ÜST 21962 MBS 1</t>
+          <t>3,5 ALT/ÜST 26371 MBS 1</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1.32</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>6.75</t>
+          <t>2.31</t>
         </is>
       </c>
     </row>
@@ -804,7 +804,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>0,5 ALT/ÜST 21942 MBS 1</t>
+          <t>4,5 ALT/ÜST 00293 MBS 1</t>
         </is>
       </c>
     </row>
@@ -824,7 +824,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>6.87</t>
+          <t>1.06</t>
         </is>
       </c>
     </row>
@@ -844,7 +844,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>4.10</t>
         </is>
       </c>
     </row>
@@ -854,7 +854,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2,5 ALT/ÜST 21944 MBS 1</t>
+          <t>0,5 ALT/ÜST 26367 MBS 1</t>
         </is>
       </c>
     </row>
@@ -874,7 +874,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>1.49</t>
+          <t>10.05</t>
         </is>
       </c>
     </row>
@@ -894,7 +894,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>1.93</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -904,7 +904,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>1. YARI 1,5 ALT/ÜST 22074 MBS 1</t>
+          <t>1. YARI 0,5 ALT/ÜST 26385 MBS 1</t>
         </is>
       </c>
     </row>
@@ -924,7 +924,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>2.95</t>
         </is>
       </c>
     </row>
@@ -944,7 +944,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2.84</t>
+          <t>1.17</t>
         </is>
       </c>
     </row>
@@ -954,7 +954,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>1. YARI 0,5 ALT/ÜST 22073 MBS 1</t>
+          <t>1. YARI 2,5 ALT/ÜST 26388 MBS 1</t>
         </is>
       </c>
     </row>
@@ -974,7 +974,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -994,7 +994,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>4.99</t>
         </is>
       </c>
     </row>
@@ -1004,7 +1004,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>1. YARI 2,5 ALT/ÜST 22075 MBS 1</t>
+          <t>1. YARI 1,5 ALT/ÜST 26387 MBS 1</t>
         </is>
       </c>
     </row>
@@ -1024,7 +1024,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1.36</t>
         </is>
       </c>
     </row>
@@ -1044,7 +1044,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>7.12</t>
+          <t>2.18</t>
         </is>
       </c>
     </row>
@@ -1054,7 +1054,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>1. YARI ÇIFTE ŞANS 22072 MBS 1</t>
+          <t>1. YARI ÇIFTE ŞANS 26384 MBS 1</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>1.15</t>
+          <t>1.50</t>
         </is>
       </c>
     </row>
@@ -1094,7 +1094,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>1.49</t>
+          <t>1.31</t>
         </is>
       </c>
     </row>
@@ -1114,7 +1114,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>1.15</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1124,7 +1124,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>1. YARI SONUCU 22071 MBS 1</t>
+          <t>1. YARI SONUCU 26383 MBS 1</t>
         </is>
       </c>
     </row>
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>5.13</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>1.79</t>
+          <t>2.14</t>
         </is>
       </c>
     </row>
@@ -1184,7 +1184,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>1.74</t>
         </is>
       </c>
     </row>
@@ -1194,7 +1194,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2. YARI SONUCU 22079 MBS 1</t>
+          <t>2. YARI SONUCU 26390 MBS 1</t>
         </is>
       </c>
     </row>
@@ -1214,7 +1214,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2.69</t>
+          <t>5.01</t>
         </is>
       </c>
     </row>
@@ -1234,7 +1234,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2.18</t>
+          <t>2.68</t>
         </is>
       </c>
     </row>
@@ -1254,7 +1254,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>2.69</t>
+          <t>1.59</t>
         </is>
       </c>
     </row>
@@ -1264,7 +1264,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>TEK/ÇIFT 22113 MBS 1</t>
+          <t>TEK/ÇIFT 26749 MBS 1</t>
         </is>
       </c>
     </row>
@@ -1284,7 +1284,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>1.74</t>
+          <t>1.69</t>
         </is>
       </c>
     </row>
@@ -1304,7 +1304,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>1.62</t>
+          <t>1.66</t>
         </is>
       </c>
     </row>
@@ -1314,7 +1314,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>TOPLAM GOL ARALIĞI 22070 MBS 1</t>
+          <t>TOPLAM GOL ARALIĞI 26382 MBS 1</t>
         </is>
       </c>
     </row>
@@ -1334,7 +1334,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>2.74</t>
+          <t>4.10</t>
         </is>
       </c>
     </row>
@@ -1354,7 +1354,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>1.76</t>
+          <t>1.84</t>
         </is>
       </c>
     </row>
@@ -1374,7 +1374,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>4.32</t>
+          <t>3.03</t>
         </is>
       </c>
     </row>
@@ -1394,7 +1394,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>21.75</t>
+          <t>9.59</t>
         </is>
       </c>
     </row>
@@ -1404,7 +1404,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>KARŞILIKLI GOL 22069 MBS 1</t>
+          <t>KARŞILIKLI GOL 26381 MBS 1</t>
         </is>
       </c>
     </row>
@@ -1424,7 +1424,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>1.58</t>
         </is>
       </c>
     </row>
@@ -1444,7 +1444,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>1.72</t>
         </is>
       </c>
     </row>
@@ -1454,7 +1454,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>İLK YARI/MAÇ SONUCU 22076 MBS 1</t>
+          <t>İLK YARI/MAÇ SONUCU 26389 MBS 1</t>
         </is>
       </c>
     </row>
@@ -1474,7 +1474,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>3.89</t>
+          <t>9.72</t>
         </is>
       </c>
     </row>
@@ -1494,7 +1494,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>5.43</t>
+          <t>12.40</t>
         </is>
       </c>
     </row>
@@ -1514,7 +1514,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>32.50</t>
+          <t>34.00</t>
         </is>
       </c>
     </row>
@@ -1534,7 +1534,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>13.15</t>
+          <t>17.60</t>
         </is>
       </c>
     </row>
@@ -1554,7 +1554,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>3.97</t>
+          <t>5.98</t>
         </is>
       </c>
     </row>
@@ -1574,7 +1574,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>13.15</t>
+          <t>16.85</t>
         </is>
       </c>
     </row>
@@ -1594,7 +1594,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>32.50</t>
+          <t>22.15</t>
         </is>
       </c>
     </row>
@@ -1614,7 +1614,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>5.42</t>
+          <t>3.67</t>
         </is>
       </c>
     </row>
@@ -1634,7 +1634,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>3.89</t>
+          <t>1.82</t>
         </is>
       </c>
     </row>
@@ -1644,7 +1644,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>HND. MS (0:2) 21919 MBS 1</t>
+          <t>HND. MS (0:1) 26359 MBS 1</t>
         </is>
       </c>
     </row>
@@ -1664,7 +1664,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>12.75</t>
+          <t>13.25</t>
         </is>
       </c>
     </row>
@@ -1684,7 +1684,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>6.40</t>
+          <t>6.34</t>
         </is>
       </c>
     </row>
@@ -1694,7 +1694,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>+2h</t>
+          <t>+1h</t>
         </is>
       </c>
     </row>
@@ -1714,7 +1714,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>HND. MS (0:1) 21921 MBS 1</t>
+          <t>HND. MS (2:0) 26361 MBS 1</t>
         </is>
       </c>
     </row>
@@ -1724,7 +1724,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>+2h</t>
         </is>
       </c>
     </row>
@@ -1734,7 +1734,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>5.07</t>
+          <t>1.41</t>
         </is>
       </c>
     </row>
@@ -1754,7 +1754,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>3.82</t>
+          <t>3.95</t>
         </is>
       </c>
     </row>
@@ -1764,7 +1764,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>+1h</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1774,7 +1774,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>1.29</t>
+          <t>3.66</t>
         </is>
       </c>
     </row>
@@ -1784,7 +1784,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>HND. MS (1:0) 21922 MBS 1</t>
+          <t>HND. MS (1:0) 26360 MBS 1</t>
         </is>
       </c>
     </row>
@@ -1804,7 +1804,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>1.29</t>
+          <t>2.30</t>
         </is>
       </c>
     </row>
@@ -1824,7 +1824,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>3.82</t>
+          <t>3.34</t>
         </is>
       </c>
     </row>
@@ -1844,7 +1844,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>5.06</t>
+          <t>1.99</t>
         </is>
       </c>
     </row>
@@ -1854,7 +1854,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>MAÇ SKORU 22080 MBS 1</t>
+          <t>MAÇ SKORU 26391 MBS 1</t>
         </is>
       </c>
     </row>
@@ -1874,7 +1874,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>7.29</t>
+          <t>12.65</t>
         </is>
       </c>
     </row>
@@ -1894,7 +1894,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>6.76</t>
+          <t>6.31</t>
         </is>
       </c>
     </row>
@@ -1914,7 +1914,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>11.00</t>
+          <t>5.99</t>
         </is>
       </c>
     </row>
@@ -1934,7 +1934,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>27.00</t>
+          <t>8.44</t>
         </is>
       </c>
     </row>
@@ -1954,7 +1954,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>90.00</t>
+          <t>15.80</t>
         </is>
       </c>
     </row>
@@ -1974,7 +1974,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>130.00</t>
+          <t>37.00</t>
         </is>
       </c>
     </row>
@@ -1994,7 +1994,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>6.77</t>
+          <t>14.50</t>
         </is>
       </c>
     </row>
@@ -2014,7 +2014,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>4.98</t>
+          <t>6.79</t>
         </is>
       </c>
     </row>
@@ -2034,7 +2034,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>9.08</t>
+          <t>6.65</t>
         </is>
       </c>
     </row>
@@ -2054,7 +2054,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>22.15</t>
+          <t>9.38</t>
         </is>
       </c>
     </row>
@@ -2074,7 +2074,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>72.00</t>
+          <t>17.60</t>
         </is>
       </c>
     </row>
@@ -2094,7 +2094,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>130.00</t>
+          <t>41.50</t>
         </is>
       </c>
     </row>
@@ -2114,7 +2114,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>11.00</t>
+          <t>32.00</t>
         </is>
       </c>
     </row>
@@ -2134,7 +2134,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>9.08</t>
+          <t>15.30</t>
         </is>
       </c>
     </row>
@@ -2154,7 +2154,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>13.15</t>
+          <t>14.10</t>
         </is>
       </c>
     </row>
@@ -2174,7 +2174,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>36.00</t>
+          <t>20.65</t>
         </is>
       </c>
     </row>
@@ -2194,7 +2194,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>120.00</t>
+          <t>39.00</t>
         </is>
       </c>
     </row>
@@ -2214,7 +2214,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>130.00</t>
+          <t>105.00</t>
         </is>
       </c>
     </row>
@@ -2234,7 +2234,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>27.00</t>
+          <t>105.00</t>
         </is>
       </c>
     </row>
@@ -2254,7 +2254,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>22.15</t>
+          <t>50.00</t>
         </is>
       </c>
     </row>
@@ -2274,7 +2274,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>36.00</t>
+          <t>47.50</t>
         </is>
       </c>
     </row>
@@ -2294,7 +2294,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>79.00</t>
+          <t>67.00</t>
         </is>
       </c>
     </row>
@@ -2314,7 +2314,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>90.00</t>
+          <t>130.00</t>
         </is>
       </c>
     </row>
@@ -2334,7 +2334,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>72.00</t>
+          <t>130.00</t>
         </is>
       </c>
     </row>
@@ -2354,7 +2354,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>120.00</t>
+          <t>130.00</t>
         </is>
       </c>
     </row>
@@ -2434,7 +2434,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>56.00</t>
+          <t>19.00</t>
         </is>
       </c>
     </row>
@@ -2444,7 +2444,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>İLK GOL 21923 MBS 1</t>
+          <t>İLK GOL 26362 MBS 1</t>
         </is>
       </c>
     </row>
@@ -2464,7 +2464,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>2.50</t>
         </is>
       </c>
     </row>
@@ -2484,7 +2484,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>7.32</t>
+          <t>12.80</t>
         </is>
       </c>
     </row>
@@ -2504,7 +2504,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>1.21</t>
         </is>
       </c>
     </row>
@@ -2514,7 +2514,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>MS VE 1,5 ALT/ÜST 21925 MBS 1</t>
+          <t>MS VE 2,5 ALT/ÜST 26364 MBS 1</t>
         </is>
       </c>
     </row>
@@ -2534,7 +2534,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>7.66</t>
+          <t>12.20</t>
         </is>
       </c>
     </row>
@@ -2554,7 +2554,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>8.27</t>
+          <t>5.36</t>
         </is>
       </c>
     </row>
@@ -2574,7 +2574,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>7.66</t>
+          <t>3.73</t>
         </is>
       </c>
     </row>
@@ -2594,7 +2594,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>3.24</t>
+          <t>9.25</t>
         </is>
       </c>
     </row>
@@ -2614,7 +2614,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>3.92</t>
+          <t>13.90</t>
         </is>
       </c>
     </row>
@@ -2634,7 +2634,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>3.23</t>
+          <t>1.86</t>
         </is>
       </c>
     </row>
@@ -2644,7 +2644,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>MS VE 2,5 ALT/ÜST 21927 MBS 1</t>
+          <t>MS VE 4,5 ALT/ÜST 26366 MBS 1</t>
         </is>
       </c>
     </row>
@@ -2664,7 +2664,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>4.80</t>
+          <t>6.21</t>
         </is>
       </c>
     </row>
@@ -2684,7 +2684,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>3.38</t>
+          <t>4.08</t>
         </is>
       </c>
     </row>
@@ -2704,7 +2704,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>4.79</t>
+          <t>1.63</t>
         </is>
       </c>
     </row>
@@ -2724,7 +2724,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>4.31</t>
+          <t>33.00</t>
         </is>
       </c>
     </row>
@@ -2744,7 +2744,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>12.75</t>
+          <t>34.00</t>
         </is>
       </c>
     </row>
@@ -2764,7 +2764,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>4.31</t>
+          <t>5.19</t>
         </is>
       </c>
     </row>
@@ -2774,7 +2774,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>MS VE 3,5 ALT/ÜST 21928 MBS 1</t>
+          <t>MS VE 1,5 ALT/ÜST 26363 MBS 1</t>
         </is>
       </c>
     </row>
@@ -2794,7 +2794,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>2.99</t>
+          <t>17.50</t>
         </is>
       </c>
     </row>
@@ -2814,7 +2814,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>3.37</t>
+          <t>15.20</t>
         </is>
       </c>
     </row>
@@ -2834,7 +2834,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>2.99</t>
+          <t>7.49</t>
         </is>
       </c>
     </row>
@@ -2854,7 +2854,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>9.51</t>
+          <t>7.43</t>
         </is>
       </c>
     </row>
@@ -2874,7 +2874,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>12.70</t>
+          <t>5.12</t>
         </is>
       </c>
     </row>
@@ -2894,7 +2894,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>9.51</t>
+          <t>1.49</t>
         </is>
       </c>
     </row>
@@ -2904,7 +2904,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>MS VE 4,5 ALT/ÜST 21930 MBS 1</t>
+          <t>MS VE 3,5 ALT/ÜST 26365 MBS 1</t>
         </is>
       </c>
     </row>
@@ -2924,7 +2924,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>2.61</t>
+          <t>7.03</t>
         </is>
       </c>
     </row>
@@ -2944,7 +2944,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>5.37</t>
         </is>
       </c>
     </row>
@@ -2964,7 +2964,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>2.61</t>
+          <t>2.08</t>
         </is>
       </c>
     </row>
@@ -2984,7 +2984,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>17.65</t>
+          <t>21.05</t>
         </is>
       </c>
     </row>
@@ -3004,7 +3004,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>34.00</t>
+          <t>13.90</t>
         </is>
       </c>
     </row>
@@ -3024,7 +3024,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>17.60</t>
+          <t>3.06</t>
         </is>
       </c>
     </row>
@@ -3034,7 +3034,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>1. YARI EN ÇOK KORNER 05794 MBS 1</t>
+          <t>1. YARI EN ÇOK KORNER 00562 MBS 1</t>
         </is>
       </c>
     </row>
@@ -3054,7 +3054,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>1.92</t>
+          <t>3.17</t>
         </is>
       </c>
     </row>
@@ -3074,7 +3074,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>4.62</t>
+          <t>5.12</t>
         </is>
       </c>
     </row>
@@ -3094,7 +3094,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>2.14</t>
+          <t>1.44</t>
         </is>
       </c>
     </row>
@@ -3104,7 +3104,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>1. YARI KORNER ARALIĞI 08940 MBS 1</t>
+          <t>1. YARI KORNER ARALIĞI 01004 MBS 1</t>
         </is>
       </c>
     </row>
@@ -3124,7 +3124,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>1.81</t>
         </is>
       </c>
     </row>
@@ -3144,7 +3144,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>2.99</t>
+          <t>2.91</t>
         </is>
       </c>
     </row>
@@ -3164,7 +3164,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>3.84</t>
+          <t>3.29</t>
         </is>
       </c>
     </row>
@@ -3174,7 +3174,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>TOPLAM KORNER ARALIĞI 05428 MBS 1</t>
+          <t>1. YARI DEPLASMAN 0,5 ALT/ÜST 26772 MBS 1</t>
         </is>
       </c>
     </row>
@@ -3184,7 +3184,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>0-8</t>
+          <t>Alt</t>
         </is>
       </c>
     </row>
@@ -3194,7 +3194,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>2.07</t>
         </is>
       </c>
     </row>
@@ -3204,7 +3204,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>9-11</t>
+          <t>Üst</t>
         </is>
       </c>
     </row>
@@ -3214,7 +3214,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>2.64</t>
+          <t>1.42</t>
         </is>
       </c>
     </row>
@@ -3234,7 +3234,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>2.78</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -3244,7 +3244,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>1. YARI DEPLASMAN 0,5 ALT/ÜST 22123 MBS 1</t>
+          <t>TOPLAM KORNER ARALIĞI 00261 MBS 1</t>
         </is>
       </c>
     </row>
@@ -3254,7 +3254,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Alt</t>
+          <t>0-8</t>
         </is>
       </c>
     </row>
@@ -3264,7 +3264,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>1.42</t>
+          <t>2.53</t>
         </is>
       </c>
     </row>
@@ -3274,7 +3274,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>Üst</t>
+          <t>9-11</t>
         </is>
       </c>
     </row>
@@ -3284,7 +3284,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>2.64</t>
         </is>
       </c>
     </row>
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>2.33</t>
         </is>
       </c>
     </row>
@@ -3314,7 +3314,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>EN ÇOK KORNER 08936 MBS 1</t>
+          <t>EN ÇOK KORNER 00931 MBS 1</t>
         </is>
       </c>
     </row>
@@ -3334,7 +3334,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>1.74</t>
+          <t>3.55</t>
         </is>
       </c>
     </row>
@@ -3374,7 +3374,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>2.02</t>
+          <t>1.25</t>
         </is>
       </c>
     </row>
@@ -3384,7 +3384,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>1.YARI 4,5 KORNER ALT/ÜST 05827 MBS 1</t>
+          <t>1.YARI 4,5 KORNER ALT/ÜST 01001 MBS 1</t>
         </is>
       </c>
     </row>
@@ -3404,7 +3404,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>1.64</t>
+          <t>1.79</t>
         </is>
       </c>
     </row>
@@ -3424,7 +3424,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>1.58</t>
         </is>
       </c>
     </row>
@@ -3434,7 +3434,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>EV SAHIBI 0,5 A/Ü 22081 MBS 1</t>
+          <t>EV SAHIBI 0,5 A/Ü 26392 MBS 1</t>
         </is>
       </c>
     </row>
@@ -3454,7 +3454,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>2.71</t>
+          <t>2.04</t>
         </is>
       </c>
     </row>
@@ -3474,7 +3474,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>1.42</t>
         </is>
       </c>
     </row>
@@ -3484,7 +3484,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>EV SAHIBI 2,5 A/Ü 22083 MBS 1</t>
+          <t>EV SAHIBI 1,5 A/Ü 26393 MBS 1</t>
         </is>
       </c>
     </row>
@@ -3504,7 +3504,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1.11</t>
         </is>
       </c>
     </row>
@@ -3524,7 +3524,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>5.77</t>
+          <t>3.44</t>
         </is>
       </c>
     </row>
@@ -3534,7 +3534,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>EV SAHIBI 1,5 A/Ü 22082 MBS 1</t>
+          <t>EV SAHIBI 2,5 A/Ü 26394 MBS 1</t>
         </is>
       </c>
     </row>
@@ -3554,7 +3554,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>1.29</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -3574,7 +3574,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>2.41</t>
+          <t>8.99</t>
         </is>
       </c>
     </row>
@@ -3584,7 +3584,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>EN ÇOK GOL OLACAK YARI 22097 MBS 1</t>
+          <t>EN ÇOK GOL OLACAK YARI 26652 MBS 1</t>
         </is>
       </c>
     </row>
@@ -3604,7 +3604,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>3.01</t>
+          <t>2.84</t>
         </is>
       </c>
     </row>
@@ -3624,7 +3624,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>2.93</t>
+          <t>3.38</t>
         </is>
       </c>
     </row>
@@ -3644,7 +3644,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>1.81</t>
         </is>
       </c>
     </row>
@@ -3654,7 +3654,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>DEPLASMAN 2,5 A/Ü 22089 MBS 1</t>
+          <t>DEPLASMAN 1,5 A/Ü 26396 MBS 1</t>
         </is>
       </c>
     </row>
@@ -3674,7 +3674,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>2.17</t>
         </is>
       </c>
     </row>
@@ -3694,7 +3694,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>5.77</t>
+          <t>1.37</t>
         </is>
       </c>
     </row>
@@ -3704,7 +3704,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>DEPLASMAN 1,5 A/Ü 22088 MBS 1</t>
+          <t>DEPLASMAN 0,5 A/Ü 26395 MBS 1</t>
         </is>
       </c>
     </row>
@@ -3724,7 +3724,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>1.29</t>
+          <t>5.73</t>
         </is>
       </c>
     </row>
@@ -3744,7 +3744,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>2.41</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -3754,7 +3754,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>DEPLASMAN 0,5 A/Ü 22087 MBS 1</t>
+          <t>DEPLASMAN 2,5 A/Ü 26445 MBS 1</t>
         </is>
       </c>
     </row>
@@ -3774,7 +3774,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>2.71</t>
+          <t>1.31</t>
         </is>
       </c>
     </row>
@@ -3794,7 +3794,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>2.33</t>
         </is>
       </c>
     </row>
@@ -3804,7 +3804,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>İLK KORNER 08935 MBS 1</t>
+          <t>İLK KORNER 01003 MBS 1</t>
         </is>
       </c>
     </row>
@@ -3824,7 +3824,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>1.62</t>
+          <t>2.09</t>
         </is>
       </c>
     </row>
@@ -3864,7 +3864,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>1.38</t>
         </is>
       </c>
     </row>
@@ -3874,7 +3874,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>EV SAHIBI İKI YARIYI DA KAZANIR 22111 MBS 1</t>
+          <t>1. YARI KARŞILIKLI GOL 26770 MBS 1</t>
         </is>
       </c>
     </row>
@@ -3884,7 +3884,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>Evet</t>
+          <t>Var</t>
         </is>
       </c>
     </row>
@@ -3894,7 +3894,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>7.74</t>
+          <t>3.92</t>
         </is>
       </c>
     </row>
@@ -3904,7 +3904,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>Hayır</t>
+          <t>Yok</t>
         </is>
       </c>
     </row>
@@ -3914,7 +3914,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1.07</t>
         </is>
       </c>
     </row>
@@ -3924,7 +3924,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>1. YARI KARŞILIKLI GOL 22121 MBS 1</t>
+          <t>EV SAHIBI İKI YARIYI DA KAZANIR 26744 MBS 1</t>
         </is>
       </c>
     </row>
@@ -3934,7 +3934,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>Var</t>
+          <t>Evet</t>
         </is>
       </c>
     </row>
@@ -3944,7 +3944,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>4.47</t>
+          <t>13.10</t>
         </is>
       </c>
     </row>
@@ -3954,7 +3954,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>Yok</t>
+          <t>Hayır</t>
         </is>
       </c>
     </row>
@@ -3974,7 +3974,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>DEPLASMAN İKI YARIYI DA KAZANIR 22112 MBS 1</t>
+          <t>1. YARI EV SAHIBI 0,5 ALT/ÜST 26771 MBS 1</t>
         </is>
       </c>
     </row>
@@ -3984,7 +3984,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>Evet</t>
+          <t>Alt</t>
         </is>
       </c>
     </row>
@@ -3994,7 +3994,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>7.74</t>
+          <t>1.26</t>
         </is>
       </c>
     </row>
@@ -4004,7 +4004,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>Hayır</t>
+          <t>Üst</t>
         </is>
       </c>
     </row>
@@ -4014,7 +4014,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>2.51</t>
         </is>
       </c>
     </row>
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>1. YARI EV SAHIBI 0,5 ALT/ÜST 22122 MBS 1</t>
+          <t>DEPLASMAN İKI YARIYI DA KAZANIR 26745 MBS 1</t>
         </is>
       </c>
     </row>
@@ -4034,7 +4034,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>Alt</t>
+          <t>Evet</t>
         </is>
       </c>
     </row>
@@ -4044,7 +4044,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>1.42</t>
+          <t>3.16</t>
         </is>
       </c>
     </row>
@@ -4054,7 +4054,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>Üst</t>
+          <t>Hayır</t>
         </is>
       </c>
     </row>
@@ -4064,7 +4064,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>1.14</t>
         </is>
       </c>
     </row>
